--- a/charts_catalog.xlsx
+++ b/charts_catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e822d9cfdb6ab9f/Research/Python Scripts/Projects/charts-panel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{397FCA55-BE16-491C-9636-9AC75EFDE013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C84B6E7-AC2B-4BD7-836D-3711912AECC3}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{397FCA55-BE16-491C-9636-9AC75EFDE013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5688D55-C75F-4457-A7E3-99B849FD0334}"/>
   <bookViews>
-    <workbookView xWindow="1407" yWindow="1407" windowWidth="15951" windowHeight="9127" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="charts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="2034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="2052">
   <si>
     <t>ID</t>
   </si>
@@ -6579,6 +6579,60 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>https://infogram.com/deficit-trackerfinal-1h0n25yrjl1xl6p</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>78NO2X2H06</t>
+  </si>
+  <si>
+    <t>US Deficit Tracker</t>
+  </si>
+  <si>
+    <t>US, Fiscal Policy</t>
+  </si>
+  <si>
+    <t>US Deficit Tracker by Year</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/graph/fredgraph.png?g=1JagK&amp;height=490</t>
+  </si>
+  <si>
+    <t>UCRBJ15GP1</t>
+  </si>
+  <si>
+    <t>Fred Unemployment</t>
+  </si>
+  <si>
+    <t>US, Labor Market</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>https://substackcdn.com/image/fetch/f_auto,q_auto:good,fl_progressive:steep/https%3A%2F%2Fsubstack-post-media.s3.amazonaws.com%2Fpublic%2Fimages%2Fac93731f-ac9b-4f05-9ad9-f75fab35a545_913x543.png</t>
+  </si>
+  <si>
+    <t>H684D7SAYD</t>
+  </si>
+  <si>
+    <t>Cloud Software Quarterly Net New ARR Added</t>
+  </si>
+  <si>
+    <t>Equity, Tech</t>
+  </si>
+  <si>
+    <t>https://www.atlantafed.org/-/media/Images/cqer/research/gdpnow/gdpnow-forecast-evolution.gif</t>
+  </si>
+  <si>
+    <t>BHARIM88KM</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDP Now</t>
   </si>
 </sst>
 </file>
@@ -6985,8 +7039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C432" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H444" sqref="H444"/>
+    <sheetView tabSelected="1" topLeftCell="A458" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:A488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17626,6 +17680,101 @@
       <c r="G462" t="s">
         <v>2033</v>
       </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B463" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C463" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D463" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F463" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G463" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B464" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C464" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D464" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F464" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G464" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B465" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C465" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D465" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F465" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G465" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B466" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F466" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G466" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E467" s="2"/>
     </row>
     <row r="495" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F495" s="4"/>
@@ -18109,9 +18258,13 @@
     <hyperlink ref="E455" r:id="rId454" xr:uid="{9C5E8283-94B6-41BA-BB36-844BB35F2844}"/>
     <hyperlink ref="E456" r:id="rId455" xr:uid="{7B1E8DE0-6112-45F5-86B3-0C55FEBDDAED}"/>
     <hyperlink ref="E457" r:id="rId456" xr:uid="{7748C533-433C-43CD-9A84-BF5BB1D3E0B8}"/>
+    <hyperlink ref="E463" r:id="rId457" xr:uid="{37CAAE82-41BD-4BEE-920D-68FE39167098}"/>
+    <hyperlink ref="E464" r:id="rId458" xr:uid="{4A7B7901-FED2-4193-9BCF-6919A20341CD}"/>
+    <hyperlink ref="E465" r:id="rId459" xr:uid="{C4C44642-56B8-41E9-9251-3A66768E396D}"/>
+    <hyperlink ref="E466" r:id="rId460" xr:uid="{4E4DAB9C-CD6F-42BC-94B1-F49C6748855C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId457"/>
+  <pageSetup orientation="portrait" r:id="rId461"/>
   <headerFooter differentOddEven="1" differentFirst="1">
     <oddFooter>&amp;L&amp;"arial,Regular"Internal</oddFooter>
     <evenFooter>&amp;L&amp;"arial,Regular"Internal</evenFooter>
@@ -18124,8 +18277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/charts_catalog.xlsx
+++ b/charts_catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e822d9cfdb6ab9f/Research/Python Scripts/Projects/charts-panel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{397FCA55-BE16-491C-9636-9AC75EFDE013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5688D55-C75F-4457-A7E3-99B849FD0334}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{397FCA55-BE16-491C-9636-9AC75EFDE013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B711ED85-C67E-4A08-8DC7-A0DF18E6ADBA}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1750" yWindow="1750" windowWidth="15951" windowHeight="9128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="charts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="2056">
   <si>
     <t>ID</t>
   </si>
@@ -6633,6 +6633,18 @@
   </si>
   <si>
     <t>Atlanta Fed GDP Now</t>
+  </si>
+  <si>
+    <t>https://marquee.gs.com/s/marketview/widget/MWR3UHILTHVJQEJ1Q0</t>
+  </si>
+  <si>
+    <t>OBQK75KTFF</t>
+  </si>
+  <si>
+    <t>Emini vs 2yr yield</t>
+  </si>
+  <si>
+    <t>US, FI, Equity</t>
   </si>
 </sst>
 </file>
@@ -7039,8 +7051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:A488"/>
+    <sheetView tabSelected="1" topLeftCell="C458" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G467" sqref="G467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17774,7 +17786,27 @@
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E467" s="2"/>
+      <c r="A467" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B467" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C467" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D467" t="s">
+        <v>143</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F467" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G467" t="s">
+        <v>2033</v>
+      </c>
     </row>
     <row r="495" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F495" s="4"/>
@@ -18262,9 +18294,10 @@
     <hyperlink ref="E464" r:id="rId458" xr:uid="{4A7B7901-FED2-4193-9BCF-6919A20341CD}"/>
     <hyperlink ref="E465" r:id="rId459" xr:uid="{C4C44642-56B8-41E9-9251-3A66768E396D}"/>
     <hyperlink ref="E466" r:id="rId460" xr:uid="{4E4DAB9C-CD6F-42BC-94B1-F49C6748855C}"/>
+    <hyperlink ref="E467" r:id="rId461" xr:uid="{FE2436FF-E7EA-42B9-8D46-678F09718D87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId461"/>
+  <pageSetup orientation="portrait" r:id="rId462"/>
   <headerFooter differentOddEven="1" differentFirst="1">
     <oddFooter>&amp;L&amp;"arial,Regular"Internal</oddFooter>
     <evenFooter>&amp;L&amp;"arial,Regular"Internal</evenFooter>
@@ -18277,7 +18310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
